--- a/results/I3_N5_M2_T30_C200_DepCentral_s3_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s3_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.62079697741609</v>
+        <v>1073.49013953524</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.33079697741608</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.43422928288365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.10555953090583</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610694</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.27634796193495</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.99539592898705</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105.4099999999995</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>91.01999999999948</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.9899999999995</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>94.90000000000001</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.59499999999949</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>191.1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>187.8799999999993</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>186.1199999999993</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>184.7749999999992</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>185.1349999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.295000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.910000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.085000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>113.295000000001</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>121.65</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.55</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.910000000001</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.085000000001</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>191.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>187.8799999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>186.1199999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>184.7749999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.1349999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +2108,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
